--- a/public/data/plan_tagging_fictif.xlsx
+++ b/public/data/plan_tagging_fictif.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +418,9 @@
       <c r="E1" t="str">
         <v>Description</v>
       </c>
+      <c r="F1" t="str">
+        <v>PHOTO</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -435,6 +438,9 @@
       <c r="E2" t="str">
         <v>User views a product</v>
       </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -452,6 +458,9 @@
       <c r="E3" t="str">
         <v>User adds item to cart</v>
       </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -469,6 +478,9 @@
       <c r="E4" t="str">
         <v>User removes item</v>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -486,6 +498,9 @@
       <c r="E5" t="str">
         <v>User starts checkout</v>
       </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -503,6 +518,9 @@
       <c r="E6" t="str">
         <v>Completed order</v>
       </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -520,6 +538,9 @@
       <c r="E7" t="str">
         <v>User performs search</v>
       </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -537,6 +558,9 @@
       <c r="E8" t="str">
         <v>User logs in</v>
       </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -554,6 +578,9 @@
       <c r="E9" t="str">
         <v>User signs up</v>
       </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -571,6 +598,9 @@
       <c r="E10" t="str">
         <v>User views cart</v>
       </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -588,10 +618,13 @@
       <c r="E11" t="str">
         <v>User selects item in list</v>
       </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/data/plan_tagging_fictif.xlsx
+++ b/public/data/plan_tagging_fictif.xlsx
@@ -4,6 +4,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Tagging Plan" sheetId="1" r:id="rId1"/>
+    <sheet name="Data ref" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,234 +398,3186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Event Name</v>
+        <v>_id</v>
       </c>
       <c r="B1" t="str">
-        <v>Category</v>
+        <v>tag description</v>
       </c>
       <c r="C1" t="str">
-        <v>Trigger</v>
+        <v>zone/ origine</v>
       </c>
       <c r="D1" t="str">
-        <v>Parameters</v>
+        <v>Creation date</v>
       </c>
       <c r="E1" t="str">
-        <v>Description</v>
+        <v>Test date</v>
       </c>
       <c r="F1" t="str">
-        <v>PHOTO</v>
+        <v>Confluence link</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Test IOS</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Test Android</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Comment</v>
+      </c>
+      <c r="J1" t="str">
+        <v>JIRA  IOS</v>
+      </c>
+      <c r="K1" t="str">
+        <v>JIRA ANDROID</v>
+      </c>
+      <c r="L1" t="str">
+        <v>custom|standard</v>
+      </c>
+      <c r="M1" t="str">
+        <v>interaction or &lt;recommanded event&gt;</v>
+      </c>
+      <c r="N1" t="str">
+        <v>event_category</v>
+      </c>
+      <c r="O1" t="str">
+        <v>event_action</v>
+      </c>
+      <c r="P1" t="str">
+        <v>event_label</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>ActionPosition</v>
+      </c>
+      <c r="R1" t="str">
+        <v>paymentMethod</v>
+      </c>
+      <c r="S1" t="str">
+        <v>environmentId</v>
+      </c>
+      <c r="T1" t="str">
+        <v>userLogStatus</v>
+      </c>
+      <c r="U1" t="str">
+        <v>productSku</v>
+      </c>
+      <c r="V1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="W1" t="str">
+        <v>pageType</v>
+      </c>
+      <c r="X1" t="str">
+        <v>totalAmount</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>price</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>errorId</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>environmentVersion</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>environmentLanguage</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>environmentType</v>
+      </c>
+      <c r="AD1" t="str">
+        <v xml:space="preserve">invoicingCountryForSite </v>
+      </c>
+      <c r="AE1" t="str">
+        <v>currency</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>backOrderStatus</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>campaign</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>content_type</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>look_id</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>collection_id</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>level_name</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>sfid (cookie twist)</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>storeId</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>store_mode</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>transaction_id</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>channelId</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>internalSearchKeywords</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>numberOfResults</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>filterId</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>search_context</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>filter_category</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>&lt;filter_sub_category&gt;</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>&lt;myAppointmentDate&gt;</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>&lt;appointmentId&gt;</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>&lt;category_with_image&gt;</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>vto_sku</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>module_id</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>index</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>articleid</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>marketing_channel_type</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>view_item</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Ecommerce</v>
+        <v>On hit on continue with email</v>
       </c>
       <c r="C2" t="str">
-        <v>Page Load</v>
+        <v>mylv_native_authentification</v>
       </c>
       <c r="D2" t="str">
-        <v>item_id, item_name</v>
+        <v>21 Juillet 2025</v>
       </c>
       <c r="E2" t="str">
-        <v>User views a product</v>
+        <v>19 Septembre 2025</v>
       </c>
       <c r="F2" t="str">
+        <v>https://vuitton.atlassian.net/wiki/x/VQZ2PgE</v>
+      </c>
+      <c r="G2" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Only iOS</v>
+      </c>
+      <c r="I2" t="str">
+        <v>on a demandé à ajouter "origin" :onboarding |wishlist |OSA |repairs, |myLV |connectivity |wardrobing</v>
+      </c>
+      <c r="J2" t="str">
+        <v>AN-3694</v>
+      </c>
+      <c r="K2" t="str">
+        <v>AN-3695</v>
+      </c>
+      <c r="L2" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M2" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N2" t="str">
+        <v>mylv_native</v>
+      </c>
+      <c r="O2" t="str">
+        <v>log_in</v>
+      </c>
+      <c r="P2" t="str">
+        <v>continue_with_email</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>mylv</v>
+      </c>
+      <c r="R2" t="str">
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T2" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="X2" t="str">
+        <v/>
+      </c>
+      <c r="Y2" t="str">
+        <v/>
+      </c>
+      <c r="Z2" t="str">
+        <v/>
+      </c>
+      <c r="AA2" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE2" t="str">
+        <v/>
+      </c>
+      <c r="AF2" t="str">
+        <v/>
+      </c>
+      <c r="AG2" t="str">
+        <v/>
+      </c>
+      <c r="AH2" t="str">
+        <v/>
+      </c>
+      <c r="AI2" t="str">
+        <v/>
+      </c>
+      <c r="AJ2" t="str">
+        <v/>
+      </c>
+      <c r="AK2" t="str">
+        <v/>
+      </c>
+      <c r="AL2" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AM2" t="str">
+        <v/>
+      </c>
+      <c r="AN2" t="str">
+        <v/>
+      </c>
+      <c r="AO2" t="str">
+        <v/>
+      </c>
+      <c r="AP2" t="str">
+        <v/>
+      </c>
+      <c r="AQ2" t="str">
+        <v/>
+      </c>
+      <c r="AR2" t="str">
+        <v/>
+      </c>
+      <c r="AS2" t="str">
+        <v/>
+      </c>
+      <c r="AT2" t="str">
+        <v/>
+      </c>
+      <c r="AU2" t="str">
+        <v/>
+      </c>
+      <c r="AV2" t="str">
+        <v/>
+      </c>
+      <c r="AW2" t="str">
+        <v/>
+      </c>
+      <c r="AX2" t="str">
+        <v/>
+      </c>
+      <c r="AY2" t="str">
+        <v/>
+      </c>
+      <c r="AZ2" t="str">
+        <v/>
+      </c>
+      <c r="BA2" t="str">
+        <v/>
+      </c>
+      <c r="BB2" t="str">
+        <v/>
+      </c>
+      <c r="BC2" t="str">
+        <v/>
+      </c>
+      <c r="BD2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>add_to_cart</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Ecommerce</v>
+        <v>On hit on Log in</v>
       </c>
       <c r="C3" t="str">
-        <v>Click</v>
+        <v>mylv_native_authentification</v>
       </c>
       <c r="D3" t="str">
-        <v>item_id, quantity</v>
+        <v>21 Juillet 2025</v>
       </c>
       <c r="E3" t="str">
-        <v>User adds item to cart</v>
+        <v>19 Septembre 2025</v>
       </c>
       <c r="F3" t="str">
+        <v>https://vuitton.atlassian.net/wiki/x/VQZ2PgE</v>
+      </c>
+      <c r="G3" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H3" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I3" t="str">
+        <v>on a demandé à ajouter "origin" :onboarding |wishlist |OSA |repairs, |myLV |connectivity |wardrobing</v>
+      </c>
+      <c r="J3" t="str">
+        <v>AN-3694</v>
+      </c>
+      <c r="K3" t="str">
+        <v>AN-3695</v>
+      </c>
+      <c r="L3" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M3" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N3" t="str">
+        <v>mylv_native</v>
+      </c>
+      <c r="O3" t="str">
+        <v>i_already_have_an_account</v>
+      </c>
+      <c r="P3" t="str">
+        <v>sign_in_intention</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T3" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
+      </c>
+      <c r="AH3" t="str">
+        <v/>
+      </c>
+      <c r="AI3" t="str">
+        <v/>
+      </c>
+      <c r="AJ3" t="str">
+        <v/>
+      </c>
+      <c r="AK3" t="str">
+        <v/>
+      </c>
+      <c r="AL3" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AM3" t="str">
+        <v/>
+      </c>
+      <c r="AN3" t="str">
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <v/>
+      </c>
+      <c r="AP3" t="str">
+        <v/>
+      </c>
+      <c r="AQ3" t="str">
+        <v/>
+      </c>
+      <c r="AR3" t="str">
+        <v/>
+      </c>
+      <c r="AS3" t="str">
+        <v/>
+      </c>
+      <c r="AT3" t="str">
+        <v/>
+      </c>
+      <c r="AU3" t="str">
+        <v/>
+      </c>
+      <c r="AV3" t="str">
+        <v/>
+      </c>
+      <c r="AW3" t="str">
+        <v/>
+      </c>
+      <c r="AX3" t="str">
+        <v/>
+      </c>
+      <c r="AY3" t="str">
+        <v/>
+      </c>
+      <c r="AZ3" t="str">
+        <v/>
+      </c>
+      <c r="BA3" t="str">
+        <v/>
+      </c>
+      <c r="BB3" t="str">
+        <v/>
+      </c>
+      <c r="BC3" t="str">
+        <v/>
+      </c>
+      <c r="BD3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>remove_from_cart</v>
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Ecommerce</v>
+        <v>Login successful</v>
       </c>
       <c r="C4" t="str">
-        <v>Click</v>
+        <v>mylv_native_authentification</v>
       </c>
       <c r="D4" t="str">
-        <v>item_id, quantity</v>
+        <v>21 Juillet 2025</v>
       </c>
       <c r="E4" t="str">
-        <v>User removes item</v>
+        <v>19 Septembre 2025</v>
       </c>
       <c r="F4" t="str">
+        <v>https://vuitton.atlassian.net/wiki/x/VQZ2PgE</v>
+      </c>
+      <c r="G4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H4" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I4" t="str">
+        <v>on a demandé à ajouter "origin" :onboarding |wishlist |OSA |repairs, |myLV |connectivity |wardrobing</v>
+      </c>
+      <c r="J4" t="str">
+        <v>AN-3694</v>
+      </c>
+      <c r="K4" t="str">
+        <v>AN-3695</v>
+      </c>
+      <c r="L4" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M4" t="str">
+        <v>login</v>
+      </c>
+      <c r="N4" t="str">
+        <v>mylv_native</v>
+      </c>
+      <c r="O4" t="str">
+        <v>i_already_have_an_account</v>
+      </c>
+      <c r="P4" t="str">
+        <v>login_successful</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T4" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB4" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC4" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD4" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <v/>
+      </c>
+      <c r="AJ4" t="str">
+        <v/>
+      </c>
+      <c r="AK4" t="str">
+        <v/>
+      </c>
+      <c r="AL4" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AM4" t="str">
+        <v/>
+      </c>
+      <c r="AN4" t="str">
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <v/>
+      </c>
+      <c r="AT4" t="str">
+        <v/>
+      </c>
+      <c r="AU4" t="str">
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <v/>
+      </c>
+      <c r="AW4" t="str">
+        <v/>
+      </c>
+      <c r="AX4" t="str">
+        <v/>
+      </c>
+      <c r="AY4" t="str">
+        <v/>
+      </c>
+      <c r="AZ4" t="str">
+        <v/>
+      </c>
+      <c r="BA4" t="str">
+        <v/>
+      </c>
+      <c r="BB4" t="str">
+        <v/>
+      </c>
+      <c r="BC4" t="str">
+        <v/>
+      </c>
+      <c r="BD4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>begin_checkout</v>
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>Ecommerce</v>
+        <v>login failed</v>
       </c>
       <c r="C5" t="str">
-        <v>Click</v>
+        <v>mylv_native_authentification</v>
       </c>
       <c r="D5" t="str">
-        <v>step</v>
+        <v>21 Juillet 2025</v>
       </c>
       <c r="E5" t="str">
-        <v>User starts checkout</v>
+        <v>19 Septembre 2025</v>
       </c>
       <c r="F5" t="str">
+        <v>https://vuitton.atlassian.net/wiki/x/VQZ2PgE</v>
+      </c>
+      <c r="G5" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H5" t="str">
+        <v>OK</v>
+      </c>
+      <c r="I5" t="str">
+        <v>on a demandé à ajouter "origin" :onboarding |wishlist |OSA |repairs, |myLV |connectivity |wardrobing</v>
+      </c>
+      <c r="J5" t="str">
+        <v>AN-3694</v>
+      </c>
+      <c r="K5" t="str">
+        <v>AN-3695</v>
+      </c>
+      <c r="L5" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M5" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N5" t="str">
+        <v>mylv_native</v>
+      </c>
+      <c r="O5" t="str">
+        <v>i_already_have_an_account</v>
+      </c>
+      <c r="P5" t="str">
+        <v>login_failed</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T5" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB5" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC5" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD5" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <v/>
+      </c>
+      <c r="AH5" t="str">
+        <v/>
+      </c>
+      <c r="AI5" t="str">
+        <v/>
+      </c>
+      <c r="AJ5" t="str">
+        <v/>
+      </c>
+      <c r="AK5" t="str">
+        <v/>
+      </c>
+      <c r="AL5" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AM5" t="str">
+        <v/>
+      </c>
+      <c r="AN5" t="str">
+        <v/>
+      </c>
+      <c r="AO5" t="str">
+        <v/>
+      </c>
+      <c r="AP5" t="str">
+        <v/>
+      </c>
+      <c r="AQ5" t="str">
+        <v/>
+      </c>
+      <c r="AR5" t="str">
+        <v/>
+      </c>
+      <c r="AS5" t="str">
+        <v/>
+      </c>
+      <c r="AT5" t="str">
+        <v/>
+      </c>
+      <c r="AU5" t="str">
+        <v/>
+      </c>
+      <c r="AV5" t="str">
+        <v/>
+      </c>
+      <c r="AW5" t="str">
+        <v/>
+      </c>
+      <c r="AX5" t="str">
+        <v/>
+      </c>
+      <c r="AY5" t="str">
+        <v/>
+      </c>
+      <c r="AZ5" t="str">
+        <v/>
+      </c>
+      <c r="BA5" t="str">
+        <v/>
+      </c>
+      <c r="BB5" t="str">
+        <v/>
+      </c>
+      <c r="BC5" t="str">
+        <v/>
+      </c>
+      <c r="BD5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>purchase</v>
+        <v>6</v>
       </c>
       <c r="B6" t="str">
-        <v>Ecommerce</v>
+        <v>On hit on save modification (when phone number is required for SMS Marketing consent)</v>
       </c>
       <c r="C6" t="str">
-        <v>Form Submit</v>
-      </c>
-      <c r="D6" t="str">
-        <v>transaction_id, value</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Completed order</v>
+        <v>mylv</v>
+      </c>
+      <c r="D6">
+        <v>45952</v>
+      </c>
+      <c r="E6">
+        <v>45973</v>
       </c>
       <c r="F6" t="str">
+        <v>https://vuitton.atlassian.net/wiki/spaces/LVPASS/pages/5517508609/Tracking+-+LVA+SMS+Marketing+wave+2</v>
+      </c>
+      <c r="G6" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v>LVPASS-33569</v>
+      </c>
+      <c r="K6" t="str">
+        <v>LVPASS-33570</v>
+      </c>
+      <c r="L6" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M6" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N6" t="str">
+        <v>mylv</v>
+      </c>
+      <c r="O6" t="str">
+        <v>click</v>
+      </c>
+      <c r="P6" t="str">
+        <v>cta_save_modifications</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>mylv_myinfo_missing_phone_number</v>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T6" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB6" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC6" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD6" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE6" t="str">
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <v/>
+      </c>
+      <c r="AG6" t="str">
+        <v/>
+      </c>
+      <c r="AH6" t="str">
+        <v/>
+      </c>
+      <c r="AI6" t="str">
+        <v/>
+      </c>
+      <c r="AJ6" t="str">
+        <v/>
+      </c>
+      <c r="AK6" t="str">
+        <v/>
+      </c>
+      <c r="AL6" t="str">
+        <v/>
+      </c>
+      <c r="AM6" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AN6" t="str">
+        <v/>
+      </c>
+      <c r="AO6" t="str">
+        <v/>
+      </c>
+      <c r="AP6" t="str">
+        <v/>
+      </c>
+      <c r="AQ6" t="str">
+        <v/>
+      </c>
+      <c r="AR6" t="str">
+        <v/>
+      </c>
+      <c r="AS6" t="str">
+        <v/>
+      </c>
+      <c r="AT6" t="str">
+        <v/>
+      </c>
+      <c r="AU6" t="str">
+        <v/>
+      </c>
+      <c r="AV6" t="str">
+        <v/>
+      </c>
+      <c r="AW6" t="str">
+        <v/>
+      </c>
+      <c r="AX6" t="str">
+        <v/>
+      </c>
+      <c r="AY6" t="str">
+        <v/>
+      </c>
+      <c r="AZ6" t="str">
+        <v/>
+      </c>
+      <c r="BA6" t="str">
+        <v/>
+      </c>
+      <c r="BB6" t="str">
+        <v/>
+      </c>
+      <c r="BC6" t="str">
+        <v/>
+      </c>
+      <c r="BD6" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>search</v>
+        <v>7</v>
       </c>
       <c r="B7" t="str">
-        <v>Interaction</v>
+        <v>On hit on save modification (when user has previously consent to SMS Marketing)</v>
       </c>
       <c r="C7" t="str">
-        <v>ouput</v>
-      </c>
-      <c r="D7" t="str">
-        <v>search_term</v>
-      </c>
-      <c r="E7" t="str">
-        <v>User performs search</v>
+        <v>mylv</v>
+      </c>
+      <c r="D7">
+        <v>45952</v>
+      </c>
+      <c r="E7">
+        <v>45973</v>
       </c>
       <c r="F7" t="str">
+        <v>https://vuitton.atlassian.net/wiki/spaces/LVPASS/pages/5517508609/Tracking+-+LVA+SMS+Marketing+wave+2</v>
+      </c>
+      <c r="G7" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v>LVPASS-33569</v>
+      </c>
+      <c r="K7" t="str">
+        <v>LVPASS-33570</v>
+      </c>
+      <c r="L7" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M7" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N7" t="str">
+        <v>mylv</v>
+      </c>
+      <c r="O7" t="str">
+        <v>click</v>
+      </c>
+      <c r="P7" t="str">
+        <v>cta_save_modifications</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>mylv_myinfo_sms_marketing_disclaimer</v>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T7" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC7" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD7" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <v/>
+      </c>
+      <c r="AH7" t="str">
+        <v/>
+      </c>
+      <c r="AI7" t="str">
+        <v/>
+      </c>
+      <c r="AJ7" t="str">
+        <v/>
+      </c>
+      <c r="AK7" t="str">
+        <v/>
+      </c>
+      <c r="AL7" t="str">
+        <v/>
+      </c>
+      <c r="AM7" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AN7" t="str">
+        <v/>
+      </c>
+      <c r="AO7" t="str">
+        <v/>
+      </c>
+      <c r="AP7" t="str">
+        <v/>
+      </c>
+      <c r="AQ7" t="str">
+        <v/>
+      </c>
+      <c r="AR7" t="str">
+        <v/>
+      </c>
+      <c r="AS7" t="str">
+        <v/>
+      </c>
+      <c r="AT7" t="str">
+        <v/>
+      </c>
+      <c r="AU7" t="str">
+        <v/>
+      </c>
+      <c r="AV7" t="str">
+        <v/>
+      </c>
+      <c r="AW7" t="str">
+        <v/>
+      </c>
+      <c r="AX7" t="str">
+        <v/>
+      </c>
+      <c r="AY7" t="str">
+        <v/>
+      </c>
+      <c r="AZ7" t="str">
+        <v/>
+      </c>
+      <c r="BA7" t="str">
+        <v/>
+      </c>
+      <c r="BB7" t="str">
+        <v/>
+      </c>
+      <c r="BC7" t="str">
+        <v/>
+      </c>
+      <c r="BD7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>login</v>
+        <v>8</v>
       </c>
       <c r="B8" t="str">
-        <v>User</v>
+        <v>On hit on SMS Marketing consent in Register (before setting his phone number)</v>
       </c>
       <c r="C8" t="str">
-        <v>Click</v>
-      </c>
-      <c r="D8" t="str">
-        <v>method</v>
-      </c>
-      <c r="E8" t="str">
-        <v>User logs in</v>
+        <v>mylv</v>
+      </c>
+      <c r="D8">
+        <v>45952</v>
+      </c>
+      <c r="E8">
+        <v>45973</v>
       </c>
       <c r="F8" t="str">
+        <v>https://vuitton.atlassian.net/wiki/spaces/LVPASS/pages/5517508609/Tracking+-+LVA+SMS+Marketing+wave+2</v>
+      </c>
+      <c r="G8" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v>LVPASS-33569</v>
+      </c>
+      <c r="K8" t="str">
+        <v>LVPASS-33570</v>
+      </c>
+      <c r="L8" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M8" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N8" t="str">
+        <v>mylv_native</v>
+      </c>
+      <c r="O8" t="str">
+        <v>click</v>
+      </c>
+      <c r="P8" t="str">
+        <v>missing_phone_number_for_sms_marketing_consent</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>account_creation</v>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T8" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
+      <c r="Z8" t="str">
+        <v/>
+      </c>
+      <c r="AA8" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB8" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC8" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD8" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE8" t="str">
+        <v/>
+      </c>
+      <c r="AF8" t="str">
+        <v/>
+      </c>
+      <c r="AG8" t="str">
+        <v/>
+      </c>
+      <c r="AH8" t="str">
+        <v/>
+      </c>
+      <c r="AI8" t="str">
+        <v/>
+      </c>
+      <c r="AJ8" t="str">
+        <v/>
+      </c>
+      <c r="AK8" t="str">
+        <v/>
+      </c>
+      <c r="AL8" t="str">
+        <v/>
+      </c>
+      <c r="AM8" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AN8" t="str">
+        <v/>
+      </c>
+      <c r="AO8" t="str">
+        <v/>
+      </c>
+      <c r="AP8" t="str">
+        <v/>
+      </c>
+      <c r="AQ8" t="str">
+        <v/>
+      </c>
+      <c r="AR8" t="str">
+        <v/>
+      </c>
+      <c r="AS8" t="str">
+        <v/>
+      </c>
+      <c r="AT8" t="str">
+        <v/>
+      </c>
+      <c r="AU8" t="str">
+        <v/>
+      </c>
+      <c r="AV8" t="str">
+        <v/>
+      </c>
+      <c r="AW8" t="str">
+        <v/>
+      </c>
+      <c r="AX8" t="str">
+        <v/>
+      </c>
+      <c r="AY8" t="str">
+        <v/>
+      </c>
+      <c r="AZ8" t="str">
+        <v/>
+      </c>
+      <c r="BA8" t="str">
+        <v/>
+      </c>
+      <c r="BB8" t="str">
+        <v/>
+      </c>
+      <c r="BC8" t="str">
+        <v/>
+      </c>
+      <c r="BD8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>sign_up</v>
+        <v>9</v>
       </c>
       <c r="B9" t="str">
-        <v>User</v>
+        <v>On hit on Email consent checkbox</v>
       </c>
       <c r="C9" t="str">
-        <v>Click</v>
-      </c>
-      <c r="D9" t="str">
-        <v>method</v>
-      </c>
-      <c r="E9" t="str">
-        <v>User signs up</v>
+        <v>mylv</v>
+      </c>
+      <c r="D9">
+        <v>45952</v>
+      </c>
+      <c r="E9">
+        <v>45973</v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>https://vuitton.atlassian.net/wiki/spaces/LVPASS/pages/5517508609/Tracking+-+LVA+SMS+Marketing+wave+2</v>
+      </c>
+      <c r="G9" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v>LVPASS-33569</v>
+      </c>
+      <c r="K9" t="str">
+        <v>LVPASS-33570</v>
+      </c>
+      <c r="L9" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M9" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N9" t="str">
+        <v>mylv_native</v>
+      </c>
+      <c r="O9" t="str">
+        <v>click</v>
+      </c>
+      <c r="P9" t="str">
+        <v>{email_tick|email_untick}</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>account_creation</v>
+      </c>
+      <c r="R9" t="str">
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T9" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="X9" t="str">
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB9" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC9" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD9" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE9" t="str">
+        <v/>
+      </c>
+      <c r="AF9" t="str">
+        <v/>
+      </c>
+      <c r="AG9" t="str">
+        <v/>
+      </c>
+      <c r="AH9" t="str">
+        <v/>
+      </c>
+      <c r="AI9" t="str">
+        <v/>
+      </c>
+      <c r="AJ9" t="str">
+        <v/>
+      </c>
+      <c r="AK9" t="str">
+        <v/>
+      </c>
+      <c r="AL9" t="str">
+        <v/>
+      </c>
+      <c r="AM9" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AN9" t="str">
+        <v/>
+      </c>
+      <c r="AO9" t="str">
+        <v/>
+      </c>
+      <c r="AP9" t="str">
+        <v/>
+      </c>
+      <c r="AQ9" t="str">
+        <v/>
+      </c>
+      <c r="AR9" t="str">
+        <v/>
+      </c>
+      <c r="AS9" t="str">
+        <v/>
+      </c>
+      <c r="AT9" t="str">
+        <v/>
+      </c>
+      <c r="AU9" t="str">
+        <v/>
+      </c>
+      <c r="AV9" t="str">
+        <v/>
+      </c>
+      <c r="AW9" t="str">
+        <v/>
+      </c>
+      <c r="AX9" t="str">
+        <v/>
+      </c>
+      <c r="AY9" t="str">
+        <v/>
+      </c>
+      <c r="AZ9" t="str">
+        <v/>
+      </c>
+      <c r="BA9" t="str">
+        <v/>
+      </c>
+      <c r="BB9" t="str">
+        <v/>
+      </c>
+      <c r="BC9" t="str">
+        <v/>
+      </c>
+      <c r="BD9" t="str">
+        <v>{marketing_email:{1|0}|marketing_sms:{1|0}|gcm:{1|0}}</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>view_cart</v>
+        <v>10</v>
       </c>
       <c r="B10" t="str">
-        <v>Ecommerce</v>
+        <v>On hit on Online platforms consent checkbox</v>
       </c>
       <c r="C10" t="str">
-        <v>Page Load</v>
-      </c>
-      <c r="D10" t="str">
-        <v>cart_value</v>
-      </c>
-      <c r="E10" t="str">
-        <v>User views cart</v>
+        <v>mylv</v>
+      </c>
+      <c r="D10">
+        <v>45952</v>
+      </c>
+      <c r="E10">
+        <v>45973</v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>https://vuitton.atlassian.net/wiki/spaces/LVPASS/pages/5517508609/Tracking+-+LVA+SMS+Marketing+wave+2</v>
+      </c>
+      <c r="G10" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v>LVPASS-33569</v>
+      </c>
+      <c r="K10" t="str">
+        <v>LVPASS-33570</v>
+      </c>
+      <c r="L10" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M10" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N10" t="str">
+        <v>mylv_native</v>
+      </c>
+      <c r="O10" t="str">
+        <v>click</v>
+      </c>
+      <c r="P10" t="str">
+        <v>{online_platforms_tick|online_platforms_untick}</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>account_creation</v>
+      </c>
+      <c r="R10" t="str">
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T10" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="X10" t="str">
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB10" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC10" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD10" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE10" t="str">
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <v/>
+      </c>
+      <c r="AH10" t="str">
+        <v/>
+      </c>
+      <c r="AI10" t="str">
+        <v/>
+      </c>
+      <c r="AJ10" t="str">
+        <v/>
+      </c>
+      <c r="AK10" t="str">
+        <v/>
+      </c>
+      <c r="AL10" t="str">
+        <v/>
+      </c>
+      <c r="AM10" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AN10" t="str">
+        <v/>
+      </c>
+      <c r="AO10" t="str">
+        <v/>
+      </c>
+      <c r="AP10" t="str">
+        <v/>
+      </c>
+      <c r="AQ10" t="str">
+        <v/>
+      </c>
+      <c r="AR10" t="str">
+        <v/>
+      </c>
+      <c r="AS10" t="str">
+        <v/>
+      </c>
+      <c r="AT10" t="str">
+        <v/>
+      </c>
+      <c r="AU10" t="str">
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <v/>
+      </c>
+      <c r="AW10" t="str">
+        <v/>
+      </c>
+      <c r="AX10" t="str">
+        <v/>
+      </c>
+      <c r="AY10" t="str">
+        <v/>
+      </c>
+      <c r="AZ10" t="str">
+        <v/>
+      </c>
+      <c r="BA10" t="str">
+        <v/>
+      </c>
+      <c r="BB10" t="str">
+        <v/>
+      </c>
+      <c r="BC10" t="str">
+        <v/>
+      </c>
+      <c r="BD10" t="str">
+        <v>{marketing_email:{1|0}|marketing_sms:{1|0}|gcm:{1|0}}</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>select_item</v>
+        <v>11</v>
       </c>
       <c r="B11" t="str">
-        <v>Ecommerce</v>
+        <v>On hit on SMS consent checkbox</v>
       </c>
       <c r="C11" t="str">
-        <v>Click</v>
-      </c>
-      <c r="D11" t="str">
-        <v>item_id</v>
-      </c>
-      <c r="E11" t="str">
-        <v>User selects item in list</v>
+        <v>mylv</v>
+      </c>
+      <c r="D11">
+        <v>45952</v>
+      </c>
+      <c r="E11">
+        <v>45973</v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>https://vuitton.atlassian.net/wiki/spaces/LVPASS/pages/5517508609/Tracking+-+LVA+SMS+Marketing+wave+2</v>
+      </c>
+      <c r="G11" t="str">
+        <v>OK</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v>LVPASS-33569</v>
+      </c>
+      <c r="K11" t="str">
+        <v>LVPASS-33570</v>
+      </c>
+      <c r="L11" t="str">
+        <v>custom</v>
+      </c>
+      <c r="M11" t="str">
+        <v>interaction</v>
+      </c>
+      <c r="N11" t="str">
+        <v>mylv_native</v>
+      </c>
+      <c r="O11" t="str">
+        <v>click</v>
+      </c>
+      <c r="P11" t="str">
+        <v>{sms_consent_tick|sms_consent_untick}</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>account_creation</v>
+      </c>
+      <c r="R11" t="str">
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <v>LVPassApp</v>
+      </c>
+      <c r="T11" t="str">
+        <v>not_logged_user|logged_user</v>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <v>mylv_native_authentification</v>
+      </c>
+      <c r="X11" t="str">
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <v>us|jp|cn…</v>
+      </c>
+      <c r="AB11" t="str">
+        <v>fr-fr|de-de|it-it|en-hk…</v>
+      </c>
+      <c r="AC11" t="str">
+        <v>ppi|prod</v>
+      </c>
+      <c r="AD11" t="str">
+        <v>be|lu|mc|nl|at|fl</v>
+      </c>
+      <c r="AE11" t="str">
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <v/>
+      </c>
+      <c r="AJ11" t="str">
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <v/>
+      </c>
+      <c r="AL11" t="str">
+        <v/>
+      </c>
+      <c r="AM11" t="str">
+        <v>anonymous|XXXXXXX</v>
+      </c>
+      <c r="AN11" t="str">
+        <v/>
+      </c>
+      <c r="AO11" t="str">
+        <v/>
+      </c>
+      <c r="AP11" t="str">
+        <v/>
+      </c>
+      <c r="AQ11" t="str">
+        <v/>
+      </c>
+      <c r="AR11" t="str">
+        <v/>
+      </c>
+      <c r="AS11" t="str">
+        <v/>
+      </c>
+      <c r="AT11" t="str">
+        <v/>
+      </c>
+      <c r="AU11" t="str">
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <v/>
+      </c>
+      <c r="AW11" t="str">
+        <v/>
+      </c>
+      <c r="AX11" t="str">
+        <v/>
+      </c>
+      <c r="AY11" t="str">
+        <v/>
+      </c>
+      <c r="AZ11" t="str">
+        <v/>
+      </c>
+      <c r="BA11" t="str">
+        <v/>
+      </c>
+      <c r="BB11" t="str">
+        <v/>
+      </c>
+      <c r="BC11" t="str">
+        <v/>
+      </c>
+      <c r="BD11" t="str">
+        <v>{marketing_email:{1|0}|marketing_sms:{1|0}|gcm:{1|0}}</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BD11"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Custom Dimension Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Situation</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Commentary</v>
+      </c>
+      <c r="D1" t="str">
+        <v>_id</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>AB Test Store Appointment</v>
+      </c>
+      <c r="B2" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C2" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>11a9da7b-a57d-4d8f-8173-405758085a21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>AB Test Try on</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D3" t="str">
+        <v>25ea974b-dd21-4d7a-b3af-96c094de759d</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>AB Test Try on Android</v>
+      </c>
+      <c r="B4" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C4" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D4" t="str">
+        <v>c7be00c0-5d58-43a3-9f25-6aa9b7b2ddcb</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>ABTestID</v>
+      </c>
+      <c r="B5" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C5" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0ab21e9a-ae78-402a-bf57-dfd514678032</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>ABTestIDLabel</v>
+      </c>
+      <c r="B6" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C6" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5990eb13-0118-4bb4-aa80-0a3169f1fb8d</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ABTestVariantID</v>
+      </c>
+      <c r="B7" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C7" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D7" t="str">
+        <v>c94b3ecf-215f-4518-b3f6-3c0d42e77c32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ABTestVariantIDLabel</v>
+      </c>
+      <c r="B8" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C8" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>92f68404-cf73-4261-a56f-3d30b33c2b09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Action Position</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D9" t="str">
+        <v>3e30ca69-2343-4c9f-8a69-3646b2bbf65b</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>appointmentId</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D10" t="str">
+        <v>93a2f5eb-6ac4-48e5-9e56-34911a3cb7c8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Article ID</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D11" t="str">
+        <v>8e61757e-1ad2-4c3f-b6d2-be8cc4f46f08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>ATG ID</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D12" t="str">
+        <v>630c11c4-abbe-489b-a0d3-6cd5d8e645f5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>ATG ID USER</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D13" t="str">
+        <v>0408da28-a1c3-495c-afc5-8c7b067010ca</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Back Order Status</v>
+      </c>
+      <c r="B14" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C14" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D14" t="str">
+        <v>c16c952d-27b2-4b29-a0b0-462aa6f8a4d6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Buypath Order ID</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D15" t="str">
+        <v>e55d3f27-fdf0-4ffa-a251-8fdee2dcb247</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Buypath User Type</v>
+      </c>
+      <c r="B16" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C16" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D16" t="str">
+        <v>bb116f9a-51c4-4e5b-86dc-b31ef1a4b178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Campaign Name</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D17" t="str">
+        <v>8b2a5e3a-0a3f-4172-8c0f-cbb3fb912c60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>cart_id</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D18" t="str">
+        <v>4ef3b123-57ea-427f-a779-0cd611f3c040</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>category_with_image</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D19" t="str">
+        <v>76fb6d5f-3fb4-4b46-9069-952573f05130</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Certificate ID</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D20" t="str">
+        <v>3368ec17-5d43-4780-b37b-1eba12951df5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Club Dimension</v>
+      </c>
+      <c r="B21" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C21" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D21" t="str">
+        <v>bebb050c-9d4f-4627-9c2c-35632402d5e5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>collection ID</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D22" t="str">
+        <v>ac7cdb51-a23a-40dc-81a0-d597a68fb467</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Connection Status</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D23" t="str">
+        <v>47a7a935-c426-422e-ae83-c443f695f11d</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Content ID</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D24" t="str">
+        <v>192a5b1a-df32-43f3-bf05-b26675780087</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Content Type</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D25" t="str">
+        <v>a9f02f91-7ad5-47b4-8a95-35d3f95d416c</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>ControlGroupVariant</v>
+      </c>
+      <c r="B26" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C26" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D26" t="str">
+        <v>45630ce0-4879-49ca-bacf-43c8d70ff1d4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Cookie Consent</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D27" t="str">
+        <v>3728e698-caaa-4156-9362-f790119fd642</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Currency</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D28" t="str">
+        <v>3d9893e0-ce83-4a67-b5e7-ec5f73fbdf8d</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>digitalPurchaseId</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D29" t="str">
+        <v>7de85184-a67f-4a46-b3d1-8ae2c3074222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Direct Open App</v>
+      </c>
+      <c r="B30" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C30" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D30" t="str">
+        <v>f5daeaae-2494-4efb-aebf-39442ab97eb6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Dispatch Country</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D31" t="str">
+        <v>f69b7044-0a94-430c-aefc-78e6b0b9f156</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Environment Type</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D32" t="str">
+        <v>0e099688-0fcc-4cbc-9a35-fa4edebc723b</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Error ID</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D33" t="str">
+        <v>bf7ec8e4-8231-4869-bb16-53081e77071f</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Error Value</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D34" t="str">
+        <v>fc20e122-b60a-496e-8446-05c73930b5a2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Event Action</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D35" t="str">
+        <v>fe0374b9-cadc-4a1f-b1d5-63a5ed21c67e</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Event Category</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D36" t="str">
+        <v>9269292d-9b3d-4b63-b688-9f925999099b</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Event Label</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D37" t="str">
+        <v>f9fbe63b-ea19-49d8-a0af-5bc5db941df5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Exclusive Sale Status</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D38" t="str">
+        <v>d977fd09-7b69-471b-8f45-a6c024ba1fe5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>filter Category</v>
+      </c>
+      <c r="B39" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C39" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D39" t="str">
+        <v>4572dee1-e2c4-4a01-9046-8a45996c80f3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Filter ID</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D40" t="str">
+        <v>fc344310-c257-47fd-9a1f-50c7b4c88369</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>filter SubCategory</v>
+      </c>
+      <c r="B41" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C41" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D41" t="str">
+        <v>4c0fdaf0-403b-4eab-82c8-3934da024b95</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Firebase previous screen</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D42" t="str">
+        <v>8b1b6d4c-3661-4302-8027-c70ca8e61bfc</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Firebase Screen</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1b50cf1f-41af-470b-9b4c-776c5daaaa0f</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>GA session ID</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D44" t="str">
+        <v>fa38c1dd-1eec-4f2e-87ed-c3b0c5d5b94b</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>GA session Number</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D45" t="str">
+        <v>c073b305-ca5a-4b27-b864-42b0f8b1076d</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Internal Search Keyword</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D46" t="str">
+        <v>38bcb822-9c86-433d-ab63-3ba9d93c4b6c</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Internal Search Result</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D47" t="str">
+        <v>5b3b371e-beda-44a9-b120-24fd6bc0f524</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>invoicingCountryForSite</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D48" t="str">
+        <v>4b9aa00a-a39c-4729-8f4a-efa9d0ee569b</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>item_category</v>
+      </c>
+      <c r="B49" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C49" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D49" t="str">
+        <v>8639d508-90cd-47c6-af38-e16bbdc4ecbc</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>item_name</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D50" t="str">
+        <v>a9bfbfa1-1218-400c-8b90-31ac65dc210d</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>level_name</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D51" t="str">
+        <v>85e42512-bc73-47a2-8a96-b9897c4a898c</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>look ID</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D52" t="str">
+        <v>6b5cdc3a-f259-4e90-a86d-b33467aad59d</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>LV Screen name</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D53" t="str">
+        <v>747c2dfc-a745-412b-b871-bcefb9ca69f5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Medium Name</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1b9ecd00-12a0-4406-be1d-b14a00ab17ce</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>module ID</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D55" t="str">
+        <v>1ff33111-2849-4fb8-9123-b1ec1da91cf2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>my_Appointment_Date</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D56" t="str">
+        <v>152c45b3-75e6-4041-be13-7f98cddeecfa</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>myAppointmentDate</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D57" t="str">
+        <v>5f837537-e4ee-472e-8aea-164b26484b17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>origin</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1766855f-8b3b-49bf-9200-7af26fba7b16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Page Language</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D59" t="str">
+        <v>43bfb57e-7453-4602-bea3-d2f778b8c1d2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Page Name</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D60" t="str">
+        <v>5252b242-2f53-4869-8355-5778f0d4b8fa</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Page Type</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D61" t="str">
+        <v>6997627b-0b3b-4194-8c02-82e1a6ccc22f</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Page URL</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D62" t="str">
+        <v>957720fc-f08c-4ba5-b02f-bb01730d202e</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Payment Type</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D63" t="str">
+        <v>6726eae0-d5ae-40dd-a0bf-14928afef349</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Platform name</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D64" t="str">
+        <v>d1e97e5a-e17b-4356-8393-de0f7f1ecef3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Price</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D65" t="str">
+        <v>5e26e01d-e15b-4e8a-9a71-91778c91351a</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Product Option</v>
+      </c>
+      <c r="B66" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C66" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D66" t="str">
+        <v>f2c29fc9-bd5d-45f3-914d-d4600f23d556</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Product Quantity in Buypath</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D67" t="str">
+        <v>0fa94716-bf4b-4131-a8a3-728c83f5036c</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Product SKU in Buypath</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D68" t="str">
+        <v>f847d1ac-123a-449e-b236-ec3660b3f6f3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>productOnlineSellableStatus</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D69" t="str">
+        <v>13c72841-6ca7-4638-bf79-76e173e88bd7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Purchase ID</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D70" t="str">
+        <v>500f32d5-d04a-4634-8e89-e0833b09fc67</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>retailPurchaseId</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D71" t="str">
+        <v>eebb95b2-ef74-4ba7-b884-59b8db732d9b</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Search Context</v>
+      </c>
+      <c r="B72" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C72" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D72" t="str">
+        <v>1810b9d3-5e73-4ba8-8c94-93e10ed29480</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>SF ID HIT</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D73" t="str">
+        <v>556b8a2c-a69b-4081-878b-1f9b72f55322</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>SF_ID</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D74" t="str">
+        <v>fd0a7441-7444-4866-98a5-534f9847ca2e</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Shipping Address Status</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D75" t="str">
+        <v>8df55a13-b3c5-45dd-b8e5-8f3d1ad90ed3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Shipping Country</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D76" t="str">
+        <v>38603f0f-d44e-4063-a110-131f92d6365c</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Shipping Method</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D77" t="str">
+        <v>5d1b2ca6-de46-46a0-93b0-4048a7444664</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Shipping State</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D78" t="str">
+        <v>ea42eb47-48c5-40d3-b453-1441b7388b42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>SKU</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2bee8560-757d-45c6-bdde-6af136422c7c</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Sneakers Member Status</v>
+      </c>
+      <c r="B80" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C80" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D80" t="str">
+        <v>3f83defc-ef6c-49bd-bc93-e89fedcaecba</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Social Network</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D81" t="str">
+        <v>3d83f113-0ca8-47c7-b678-6f44df63e31d</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Source Name</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D82" t="str">
+        <v>1eddb8e7-adc4-426b-9e1f-27d35bf98759</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Stock</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D83" t="str">
+        <v>4e0c0fc5-ee1c-44ea-a0a4-2f91ec39589e</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Store ID</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2d931497-fb8f-4575-b14a-b9f499706e77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Store Mode</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D85" t="str">
+        <v>6680788b-8596-4ceb-acc4-7993aeb502eb</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Tealium info</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D86" t="str">
+        <v>26bb0bff-268b-43ee-95a0-56d480c65358</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>totalDigitalOrders</v>
+      </c>
+      <c r="B87" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C87" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D87" t="str">
+        <v>367ef629-2b3c-4836-9371-e4dc8fb9345f</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>totalRetailOrders</v>
+      </c>
+      <c r="B88" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C88" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2fef5b92-ac10-46c4-ae93-9341824b1503</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Transaction Value</v>
+      </c>
+      <c r="B89" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C89" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D89" t="str">
+        <v>e85ad8bf-0141-4b6d-b24c-1fc1cc09ba77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>User Club Status</v>
+      </c>
+      <c r="B90" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="C90" t="str">
+        <v>(not set)</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2c778251-d9de-490f-8734-3b605afbf80a</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>User Segmentation</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D91" t="str">
+        <v>f038ca4b-e3c1-46bb-9fc9-87022c953d19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Website Versions</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="D92" t="str">
+        <v>874f4cd4-4de4-4fcf-a442-a8509dff3511</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D92"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/data/plan_tagging_fictif.xlsx
+++ b/public/data/plan_tagging_fictif.xlsx
@@ -2282,1302 +2282,1595 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>_id</v>
+      </c>
+      <c r="B1" t="str">
         <v>Custom Dimension Name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>Situation</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>Commentary</v>
       </c>
-      <c r="D1" t="str">
-        <v>_id</v>
+      <c r="E1" t="str">
+        <v>New Column</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AB Test Store Appointment</v>
+        <v>47a66e40-165d-4215-babf-ae4c8ba290bd</v>
       </c>
       <c r="B2" t="str">
-        <v>in progress</v>
+        <v>fff</v>
       </c>
       <c r="C2" t="str">
-        <v>(not set)</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>11a9da7b-a57d-4d8f-8173-405758085a21</v>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>AB Test Try on</v>
+        <v>0eb276b6-1c92-4764-9c0b-e5fed732905b</v>
       </c>
       <c r="B3" t="str">
-        <v>Ok</v>
+        <v>AB Test Store Appointment</v>
       </c>
       <c r="C3" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D3" t="str">
-        <v>25ea974b-dd21-4d7a-b3af-96c094de759d</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>AB Test Try on Android</v>
+        <v>96a0be10-7518-4f5a-a50e-5e89d85333a3</v>
       </c>
       <c r="B4" t="str">
-        <v>in progress</v>
+        <v>AB Test Try on</v>
       </c>
       <c r="C4" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D4" t="str">
-        <v>c7be00c0-5d58-43a3-9f25-6aa9b7b2ddcb</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ABTestID</v>
+        <v>5dcc81ab-935f-4d20-8cfb-96ad6e7d5e14</v>
       </c>
       <c r="B5" t="str">
+        <v>AB Test Try on Android</v>
+      </c>
+      <c r="C5" t="str">
         <v>in progress</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>(not set)</v>
       </c>
-      <c r="D5" t="str">
-        <v>0ab21e9a-ae78-402a-bf57-dfd514678032</v>
+      <c r="E5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>ABTestIDLabel</v>
+        <v>5fb2e409-65cb-420d-b01f-613c25f90499</v>
       </c>
       <c r="B6" t="str">
+        <v>ABTestID</v>
+      </c>
+      <c r="C6" t="str">
         <v>in progress</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>(not set)</v>
       </c>
-      <c r="D6" t="str">
-        <v>5990eb13-0118-4bb4-aa80-0a3169f1fb8d</v>
+      <c r="E6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ABTestVariantID</v>
+        <v>b6d9b133-86a5-4658-8204-2cddabad5290</v>
       </c>
       <c r="B7" t="str">
+        <v>ABTestIDLabel</v>
+      </c>
+      <c r="C7" t="str">
         <v>in progress</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>(not set)</v>
       </c>
-      <c r="D7" t="str">
-        <v>c94b3ecf-215f-4518-b3f6-3c0d42e77c32</v>
+      <c r="E7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>ABTestVariantIDLabel</v>
+        <v>c3aeb6e0-581c-4551-8b1b-6df57596a3f4</v>
       </c>
       <c r="B8" t="str">
+        <v>ABTestVariantID</v>
+      </c>
+      <c r="C8" t="str">
         <v>in progress</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>(not set)</v>
       </c>
-      <c r="D8" t="str">
-        <v>92f68404-cf73-4261-a56f-3d30b33c2b09</v>
+      <c r="E8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Action Position</v>
+        <v>195905ca-9358-4583-be13-c81e9c93f8f0</v>
       </c>
       <c r="B9" t="str">
-        <v>Ok</v>
+        <v>ABTestVariantIDLabel</v>
       </c>
       <c r="C9" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D9" t="str">
-        <v>3e30ca69-2343-4c9f-8a69-3646b2bbf65b</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>appointmentId</v>
+        <v>109a2fad-5d18-4863-9b92-2e75d577a479</v>
       </c>
       <c r="B10" t="str">
-        <v>Ok</v>
+        <v>Action Position</v>
       </c>
       <c r="C10" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D10" t="str">
-        <v>93a2f5eb-6ac4-48e5-9e56-34911a3cb7c8</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Article ID</v>
+        <v>bf3a0cb4-fa25-49b8-9020-0cc5e8f49362</v>
       </c>
       <c r="B11" t="str">
-        <v>Ok</v>
+        <v>appointmentId</v>
       </c>
       <c r="C11" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D11" t="str">
-        <v>8e61757e-1ad2-4c3f-b6d2-be8cc4f46f08</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>ATG ID</v>
+        <v>36ee5e5a-aead-4ed9-969a-b1cf13586f11</v>
       </c>
       <c r="B12" t="str">
-        <v>Ok</v>
+        <v>Article ID</v>
       </c>
       <c r="C12" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D12" t="str">
-        <v>630c11c4-abbe-489b-a0d3-6cd5d8e645f5</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>ATG ID USER</v>
+        <v>e1fb12ee-11c7-4c7f-8445-a1883228cdd6</v>
       </c>
       <c r="B13" t="str">
-        <v>Ok</v>
+        <v>ATG ID</v>
       </c>
       <c r="C13" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D13" t="str">
-        <v>0408da28-a1c3-495c-afc5-8c7b067010ca</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Back Order Status</v>
+        <v>04017d46-22d0-4055-b034-4659f6b4b770</v>
       </c>
       <c r="B14" t="str">
-        <v>in progress</v>
+        <v>ATG ID USER</v>
       </c>
       <c r="C14" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D14" t="str">
-        <v>c16c952d-27b2-4b29-a0b0-462aa6f8a4d6</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Buypath Order ID</v>
+        <v>aafaa28d-29c2-4a33-af2a-4cb75e5ddda0</v>
       </c>
       <c r="B15" t="str">
-        <v>Ok</v>
+        <v>Back Order Status</v>
       </c>
       <c r="C15" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D15" t="str">
-        <v>e55d3f27-fdf0-4ffa-a251-8fdee2dcb247</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Buypath User Type</v>
+        <v>6a00056c-69dd-4512-a93e-d92d70584057</v>
       </c>
       <c r="B16" t="str">
-        <v>in progress</v>
+        <v>Buypath Order ID</v>
       </c>
       <c r="C16" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D16" t="str">
-        <v>bb116f9a-51c4-4e5b-86dc-b31ef1a4b178</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Campaign Name</v>
+        <v>b5c8b14f-c5c7-4acc-a5b0-ebb340451f2b</v>
       </c>
       <c r="B17" t="str">
-        <v>Ok</v>
+        <v>Buypath User Type</v>
       </c>
       <c r="C17" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D17" t="str">
-        <v>8b2a5e3a-0a3f-4172-8c0f-cbb3fb912c60</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>cart_id</v>
+        <v>e696c689-2cab-45e6-ad81-67947d72eb1e</v>
       </c>
       <c r="B18" t="str">
-        <v>Ok</v>
+        <v>Campaign Name</v>
       </c>
       <c r="C18" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D18" t="str">
-        <v>4ef3b123-57ea-427f-a779-0cd611f3c040</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>category_with_image</v>
+        <v>976e8a1d-8987-474c-af77-1fadb3fec3a9</v>
       </c>
       <c r="B19" t="str">
-        <v>Ok</v>
+        <v>cart_id</v>
       </c>
       <c r="C19" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D19" t="str">
-        <v>76fb6d5f-3fb4-4b46-9069-952573f05130</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E19" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Certificate ID</v>
+        <v>143dd71d-3d80-4921-bc28-c90b84563936</v>
       </c>
       <c r="B20" t="str">
-        <v>Ok</v>
+        <v>category_with_image</v>
       </c>
       <c r="C20" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D20" t="str">
-        <v>3368ec17-5d43-4780-b37b-1eba12951df5</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Club Dimension</v>
+        <v>cf814df2-7ce0-43e8-95d6-988e7340aa7b</v>
       </c>
       <c r="B21" t="str">
-        <v>in progress</v>
+        <v>Certificate ID</v>
       </c>
       <c r="C21" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D21" t="str">
-        <v>bebb050c-9d4f-4627-9c2c-35632402d5e5</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>collection ID</v>
+        <v>c50e4709-2897-46bf-aed4-1db02e48af9f</v>
       </c>
       <c r="B22" t="str">
-        <v>Ok</v>
+        <v>Club Dimension</v>
       </c>
       <c r="C22" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D22" t="str">
-        <v>ac7cdb51-a23a-40dc-81a0-d597a68fb467</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E22" t="str">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Connection Status</v>
+        <v>be4be5e8-d232-4d0e-86a9-90c8519c9642</v>
       </c>
       <c r="B23" t="str">
-        <v>Ok</v>
+        <v>collection ID</v>
       </c>
       <c r="C23" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D23" t="str">
-        <v>47a7a935-c426-422e-ae83-c443f695f11d</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Content ID</v>
+        <v>fc494c6a-9d8c-444c-950e-985bec58dc11</v>
       </c>
       <c r="B24" t="str">
-        <v>Ok</v>
+        <v>Connection Status</v>
       </c>
       <c r="C24" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D24" t="str">
-        <v>192a5b1a-df32-43f3-bf05-b26675780087</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Content Type</v>
+        <v>f4e7fb07-3b1b-4f54-a89a-9ad035b10a15</v>
       </c>
       <c r="B25" t="str">
-        <v>Ok</v>
+        <v>Content ID</v>
       </c>
       <c r="C25" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D25" t="str">
-        <v>a9f02f91-7ad5-47b4-8a95-35d3f95d416c</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>ControlGroupVariant</v>
+        <v>e60acb65-8d6f-4e7c-ac38-e85aab9e106c</v>
       </c>
       <c r="B26" t="str">
-        <v>in progress</v>
+        <v>Content Type</v>
       </c>
       <c r="C26" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D26" t="str">
-        <v>45630ce0-4879-49ca-bacf-43c8d70ff1d4</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Cookie Consent</v>
+        <v>b9e841ca-e3f2-4e24-9309-f66b666c3773</v>
       </c>
       <c r="B27" t="str">
-        <v>Ok</v>
+        <v>ControlGroupVariant</v>
       </c>
       <c r="C27" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D27" t="str">
-        <v>3728e698-caaa-4156-9362-f790119fd642</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Currency</v>
+        <v>e7cdad01-7ba7-4836-9998-4f2954de858e</v>
       </c>
       <c r="B28" t="str">
-        <v>Ok</v>
+        <v>Cookie Consent</v>
       </c>
       <c r="C28" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D28" t="str">
-        <v>3d9893e0-ce83-4a67-b5e7-ec5f73fbdf8d</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>digitalPurchaseId</v>
+        <v>1a3c12ee-dad7-43cd-967d-a2ef3864de80</v>
       </c>
       <c r="B29" t="str">
-        <v>Ok</v>
+        <v>Currency</v>
       </c>
       <c r="C29" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D29" t="str">
-        <v>7de85184-a67f-4a46-b3d1-8ae2c3074222</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Direct Open App</v>
+        <v>1336707c-2f8b-487d-acad-6ade5b23bb1a</v>
       </c>
       <c r="B30" t="str">
-        <v>in progress</v>
+        <v>digitalPurchaseId</v>
       </c>
       <c r="C30" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D30" t="str">
-        <v>f5daeaae-2494-4efb-aebf-39442ab97eb6</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Dispatch Country</v>
+        <v>b799094b-9154-4b8a-9756-4ce54d7d9251</v>
       </c>
       <c r="B31" t="str">
-        <v>Ok</v>
+        <v>Direct Open App</v>
       </c>
       <c r="C31" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D31" t="str">
-        <v>f69b7044-0a94-430c-aefc-78e6b0b9f156</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Environment Type</v>
+        <v>fb024851-71a4-4f4f-b876-4e7780d58704</v>
       </c>
       <c r="B32" t="str">
-        <v>Ok</v>
+        <v>Dispatch Country</v>
       </c>
       <c r="C32" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D32" t="str">
-        <v>0e099688-0fcc-4cbc-9a35-fa4edebc723b</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Error ID</v>
+        <v>5a53c726-8341-4e01-ab41-9d1f33295922</v>
       </c>
       <c r="B33" t="str">
-        <v>Ok</v>
+        <v>Environment Type</v>
       </c>
       <c r="C33" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D33" t="str">
-        <v>bf7ec8e4-8231-4869-bb16-53081e77071f</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Error Value</v>
+        <v>d0306884-bba2-456f-b9cd-1a78b75cff12</v>
       </c>
       <c r="B34" t="str">
-        <v>Ok</v>
+        <v>Error ID</v>
       </c>
       <c r="C34" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D34" t="str">
-        <v>fc20e122-b60a-496e-8446-05c73930b5a2</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Event Action</v>
+        <v>ce6b4819-6785-4b36-b0bd-3973295332d5</v>
       </c>
       <c r="B35" t="str">
-        <v>Ok</v>
+        <v>Error Value</v>
       </c>
       <c r="C35" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D35" t="str">
-        <v>fe0374b9-cadc-4a1f-b1d5-63a5ed21c67e</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Event Category</v>
+        <v>e2d8ae49-34d8-4b46-a563-328001b380dc</v>
       </c>
       <c r="B36" t="str">
-        <v>Ok</v>
+        <v>Event Action</v>
       </c>
       <c r="C36" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D36" t="str">
-        <v>9269292d-9b3d-4b63-b688-9f925999099b</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Event Label</v>
+        <v>a0414a57-b4e4-41d5-8488-ea10199cc74b</v>
       </c>
       <c r="B37" t="str">
-        <v>Ok</v>
+        <v>Event Category</v>
       </c>
       <c r="C37" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D37" t="str">
-        <v>f9fbe63b-ea19-49d8-a0af-5bc5db941df5</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Exclusive Sale Status</v>
+        <v>8c1b7144-075e-40e0-aa98-4c17b2b73d87</v>
       </c>
       <c r="B38" t="str">
-        <v>Ok</v>
+        <v>Event Label</v>
       </c>
       <c r="C38" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D38" t="str">
-        <v>d977fd09-7b69-471b-8f45-a6c024ba1fe5</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E38" t="str">
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>filter Category</v>
+        <v>36280ef6-2add-4e94-bdd1-b6159b761926</v>
       </c>
       <c r="B39" t="str">
-        <v>in progress</v>
+        <v>Exclusive Sale Status</v>
       </c>
       <c r="C39" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D39" t="str">
-        <v>4572dee1-e2c4-4a01-9046-8a45996c80f3</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E39" t="str">
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Filter ID</v>
+        <v>1dab4278-654e-4838-a9b1-b2259e6cac3e</v>
       </c>
       <c r="B40" t="str">
-        <v>Ok</v>
+        <v>filter Category</v>
       </c>
       <c r="C40" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D40" t="str">
-        <v>fc344310-c257-47fd-9a1f-50c7b4c88369</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E40" t="str">
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>filter SubCategory</v>
+        <v>0ca3c1f9-4b0b-433c-816c-68eb775958ea</v>
       </c>
       <c r="B41" t="str">
-        <v>in progress</v>
+        <v>Filter ID</v>
       </c>
       <c r="C41" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D41" t="str">
-        <v>4c0fdaf0-403b-4eab-82c8-3934da024b95</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Firebase previous screen</v>
+        <v>526611ea-f19d-44d3-9d81-446b543e6a84</v>
       </c>
       <c r="B42" t="str">
-        <v>Ok</v>
+        <v>filter SubCategory</v>
       </c>
       <c r="C42" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D42" t="str">
-        <v>8b1b6d4c-3661-4302-8027-c70ca8e61bfc</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E42" t="str">
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Firebase Screen</v>
+        <v>25e4ecec-1656-42b8-966b-cf02647d9759</v>
       </c>
       <c r="B43" t="str">
-        <v>Ok</v>
+        <v>Firebase previous screen</v>
       </c>
       <c r="C43" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D43" t="str">
-        <v>1b50cf1f-41af-470b-9b4c-776c5daaaa0f</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>GA session ID</v>
+        <v>5f4a1ff8-967e-4700-a471-0db709c66efd</v>
       </c>
       <c r="B44" t="str">
-        <v>Ok</v>
+        <v>Firebase Screen</v>
       </c>
       <c r="C44" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D44" t="str">
-        <v>fa38c1dd-1eec-4f2e-87ed-c3b0c5d5b94b</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E44" t="str">
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>GA session Number</v>
+        <v>0c6ea6bb-ed96-49e0-9f19-1bb37ac9a7a9</v>
       </c>
       <c r="B45" t="str">
-        <v>Ok</v>
+        <v>GA session ID</v>
       </c>
       <c r="C45" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D45" t="str">
-        <v>c073b305-ca5a-4b27-b864-42b0f8b1076d</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Internal Search Keyword</v>
+        <v>1120ce65-96e0-4b7d-affc-89a51b949508</v>
       </c>
       <c r="B46" t="str">
-        <v>Ok</v>
+        <v>GA session Number</v>
       </c>
       <c r="C46" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D46" t="str">
-        <v>38bcb822-9c86-433d-ab63-3ba9d93c4b6c</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E46" t="str">
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Internal Search Result</v>
+        <v>a5ec87ee-2f37-45da-95c8-11da57fe0db3</v>
       </c>
       <c r="B47" t="str">
-        <v>Ok</v>
+        <v>Internal Search Keyword</v>
       </c>
       <c r="C47" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D47" t="str">
-        <v>5b3b371e-beda-44a9-b120-24fd6bc0f524</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E47" t="str">
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>invoicingCountryForSite</v>
+        <v>14396dc1-ca01-478a-9498-8af18979ad9e</v>
       </c>
       <c r="B48" t="str">
-        <v>Ok</v>
+        <v>Internal Search Result</v>
       </c>
       <c r="C48" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D48" t="str">
-        <v>4b9aa00a-a39c-4729-8f4a-efa9d0ee569b</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>item_category</v>
+        <v>7126b79b-9045-4dda-a379-f619123ddb52</v>
       </c>
       <c r="B49" t="str">
-        <v>in progress</v>
+        <v>invoicingCountryForSite</v>
       </c>
       <c r="C49" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D49" t="str">
-        <v>8639d508-90cd-47c6-af38-e16bbdc4ecbc</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E49" t="str">
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>item_name</v>
+        <v>414f0329-ff53-407d-9c8d-a43e132b4efa</v>
       </c>
       <c r="B50" t="str">
-        <v>Ok</v>
+        <v>item_category</v>
       </c>
       <c r="C50" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D50" t="str">
-        <v>a9bfbfa1-1218-400c-8b90-31ac65dc210d</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E50" t="str">
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>level_name</v>
+        <v>07ddc1c4-6fda-49a2-a888-d40f7a6d5abe</v>
       </c>
       <c r="B51" t="str">
-        <v>Ok</v>
+        <v>item_name</v>
       </c>
       <c r="C51" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D51" t="str">
-        <v>85e42512-bc73-47a2-8a96-b9897c4a898c</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E51" t="str">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>look ID</v>
+        <v>bc4096d9-4d5e-4787-913c-0f86d0fa2347</v>
       </c>
       <c r="B52" t="str">
-        <v>Ok</v>
+        <v>level_name</v>
       </c>
       <c r="C52" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D52" t="str">
-        <v>6b5cdc3a-f259-4e90-a86d-b33467aad59d</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E52" t="str">
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>LV Screen name</v>
+        <v>1e3140a9-c64c-4bd0-b9c3-77b60d44aed3</v>
       </c>
       <c r="B53" t="str">
-        <v>Ok</v>
+        <v>look ID</v>
       </c>
       <c r="C53" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D53" t="str">
-        <v>747c2dfc-a745-412b-b871-bcefb9ca69f5</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E53" t="str">
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Medium Name</v>
+        <v>93e5e25d-10c4-42c4-8f19-1206cb066e23</v>
       </c>
       <c r="B54" t="str">
-        <v>Ok</v>
+        <v>LV Screen name</v>
       </c>
       <c r="C54" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D54" t="str">
-        <v>1b9ecd00-12a0-4406-be1d-b14a00ab17ce</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E54" t="str">
+        <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>module ID</v>
+        <v>eb16bb26-f880-4106-b63e-0ca63d1a0eca</v>
       </c>
       <c r="B55" t="str">
-        <v>Ok</v>
+        <v>Medium Name</v>
       </c>
       <c r="C55" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D55" t="str">
-        <v>1ff33111-2849-4fb8-9123-b1ec1da91cf2</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E55" t="str">
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>my_Appointment_Date</v>
+        <v>2e08e364-f1d5-4b82-8744-68915301ca5a</v>
       </c>
       <c r="B56" t="str">
-        <v>Ok</v>
+        <v>module ID</v>
       </c>
       <c r="C56" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D56" t="str">
-        <v>152c45b3-75e6-4041-be13-7f98cddeecfa</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E56" t="str">
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>myAppointmentDate</v>
+        <v>9036de63-d969-47de-96a1-0c9cc754134a</v>
       </c>
       <c r="B57" t="str">
-        <v>Ok</v>
+        <v>my_Appointment_Date</v>
       </c>
       <c r="C57" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D57" t="str">
-        <v>5f837537-e4ee-472e-8aea-164b26484b17</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E57" t="str">
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>origin</v>
+        <v>cda4bd14-ae5b-431d-a356-6371bbc1f1a4</v>
       </c>
       <c r="B58" t="str">
-        <v>Ok</v>
+        <v>myAppointmentDate</v>
       </c>
       <c r="C58" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D58" t="str">
-        <v>1766855f-8b3b-49bf-9200-7af26fba7b16</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E58" t="str">
+        <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Page Language</v>
+        <v>07e2f5cc-9742-47dc-a582-31bdd251cecb</v>
       </c>
       <c r="B59" t="str">
-        <v>Ok</v>
+        <v>origin</v>
       </c>
       <c r="C59" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D59" t="str">
-        <v>43bfb57e-7453-4602-bea3-d2f778b8c1d2</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E59" t="str">
+        <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Page Name</v>
+        <v>980c70d7-af34-4c85-9c7f-614d50743253</v>
       </c>
       <c r="B60" t="str">
-        <v>Ok</v>
+        <v>Page Language</v>
       </c>
       <c r="C60" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D60" t="str">
-        <v>5252b242-2f53-4869-8355-5778f0d4b8fa</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E60" t="str">
+        <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Page Type</v>
+        <v>978850aa-14c0-4403-8a02-7efa40b6e18d</v>
       </c>
       <c r="B61" t="str">
-        <v>Ok</v>
+        <v>Page Name</v>
       </c>
       <c r="C61" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D61" t="str">
-        <v>6997627b-0b3b-4194-8c02-82e1a6ccc22f</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E61" t="str">
+        <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Page URL</v>
+        <v>dddf43ad-2676-4885-9e94-0657c6062cc9</v>
       </c>
       <c r="B62" t="str">
-        <v>Ok</v>
+        <v>Page Type</v>
       </c>
       <c r="C62" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D62" t="str">
-        <v>957720fc-f08c-4ba5-b02f-bb01730d202e</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E62" t="str">
+        <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Payment Type</v>
+        <v>fbbb8270-1887-47f8-b5bd-1c798c8e6418</v>
       </c>
       <c r="B63" t="str">
-        <v>Ok</v>
+        <v>Page URL</v>
       </c>
       <c r="C63" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D63" t="str">
-        <v>6726eae0-d5ae-40dd-a0bf-14928afef349</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E63" t="str">
+        <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Platform name</v>
+        <v>66f6f245-40a9-4e88-adf3-855d56539f7a</v>
       </c>
       <c r="B64" t="str">
-        <v>Ok</v>
+        <v>Payment Type</v>
       </c>
       <c r="C64" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D64" t="str">
-        <v>d1e97e5a-e17b-4356-8393-de0f7f1ecef3</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E64" t="str">
+        <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Price</v>
+        <v>6b7f0e8d-b303-4dc8-b9e0-4bad0b13cbd7</v>
       </c>
       <c r="B65" t="str">
-        <v>Ok</v>
+        <v>Platform name</v>
       </c>
       <c r="C65" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D65" t="str">
-        <v>5e26e01d-e15b-4e8a-9a71-91778c91351a</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E65" t="str">
+        <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Product Option</v>
+        <v>7f48acfa-e9e4-4358-b348-a3423f72af7f</v>
       </c>
       <c r="B66" t="str">
-        <v>in progress</v>
+        <v>Price</v>
       </c>
       <c r="C66" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D66" t="str">
-        <v>f2c29fc9-bd5d-45f3-914d-d4600f23d556</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E66" t="str">
+        <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Product Quantity in Buypath</v>
+        <v>8d7b2a07-35e8-4818-8cd0-a228a17a6db0</v>
       </c>
       <c r="B67" t="str">
-        <v>Ok</v>
+        <v>Product Option</v>
       </c>
       <c r="C67" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D67" t="str">
-        <v>0fa94716-bf4b-4131-a8a3-728c83f5036c</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E67" t="str">
+        <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Product SKU in Buypath</v>
+        <v>be8bc057-5eb5-4c9b-aa10-b80d80f433ee</v>
       </c>
       <c r="B68" t="str">
-        <v>Ok</v>
+        <v>Product Quantity in Buypath</v>
       </c>
       <c r="C68" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D68" t="str">
-        <v>f847d1ac-123a-449e-b236-ec3660b3f6f3</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E68" t="str">
+        <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>productOnlineSellableStatus</v>
+        <v>803c9af2-bb50-4ac7-a555-71571af15876</v>
       </c>
       <c r="B69" t="str">
-        <v>Ok</v>
+        <v>Product SKU in Buypath</v>
       </c>
       <c r="C69" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D69" t="str">
-        <v>13c72841-6ca7-4638-bf79-76e173e88bd7</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E69" t="str">
+        <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Purchase ID</v>
+        <v>d1404e1d-05f5-48fa-96ee-e7c7c089e62f</v>
       </c>
       <c r="B70" t="str">
-        <v>Ok</v>
+        <v>productOnlineSellableStatus</v>
       </c>
       <c r="C70" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D70" t="str">
-        <v>500f32d5-d04a-4634-8e89-e0833b09fc67</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E70" t="str">
+        <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>retailPurchaseId</v>
+        <v>54f84fdd-1b4c-4a4a-87cb-f0a9a433ae13</v>
       </c>
       <c r="B71" t="str">
-        <v>Ok</v>
+        <v>Purchase ID</v>
       </c>
       <c r="C71" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D71" t="str">
-        <v>eebb95b2-ef74-4ba7-b884-59b8db732d9b</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E71" t="str">
+        <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Search Context</v>
+        <v>7e38238f-1c6a-4384-8765-b94439c9a95f</v>
       </c>
       <c r="B72" t="str">
-        <v>in progress</v>
+        <v>retailPurchaseId</v>
       </c>
       <c r="C72" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D72" t="str">
-        <v>1810b9d3-5e73-4ba8-8c94-93e10ed29480</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E72" t="str">
+        <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>SF ID HIT</v>
+        <v>efc34079-7b65-47ee-9819-fc5e8b5bb2f0</v>
       </c>
       <c r="B73" t="str">
-        <v>Ok</v>
+        <v>Search Context</v>
       </c>
       <c r="C73" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D73" t="str">
-        <v>556b8a2c-a69b-4081-878b-1f9b72f55322</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E73" t="str">
+        <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>SF_ID</v>
+        <v>4477b3d2-8727-4705-922d-ffd0d6272bf8</v>
       </c>
       <c r="B74" t="str">
-        <v>Ok</v>
+        <v>SF ID HIT</v>
       </c>
       <c r="C74" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D74" t="str">
-        <v>fd0a7441-7444-4866-98a5-534f9847ca2e</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E74" t="str">
+        <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Shipping Address Status</v>
+        <v>e8215455-fae1-493e-b54b-3384d3d17ad8</v>
       </c>
       <c r="B75" t="str">
-        <v>Ok</v>
+        <v>SF_ID</v>
       </c>
       <c r="C75" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D75" t="str">
-        <v>8df55a13-b3c5-45dd-b8e5-8f3d1ad90ed3</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E75" t="str">
+        <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Shipping Country</v>
+        <v>a445c674-4f18-4b04-9b0d-8087cadeb1ae</v>
       </c>
       <c r="B76" t="str">
-        <v>Ok</v>
+        <v>Shipping Address Status</v>
       </c>
       <c r="C76" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D76" t="str">
-        <v>38603f0f-d44e-4063-a110-131f92d6365c</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E76" t="str">
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Shipping Method</v>
+        <v>7b524f74-e65a-4914-ba52-2c820b545a5d</v>
       </c>
       <c r="B77" t="str">
-        <v>Ok</v>
+        <v>Shipping Country</v>
       </c>
       <c r="C77" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D77" t="str">
-        <v>5d1b2ca6-de46-46a0-93b0-4048a7444664</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E77" t="str">
+        <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Shipping State</v>
+        <v>8e45971c-086c-489c-8945-d507668dcb9f</v>
       </c>
       <c r="B78" t="str">
-        <v>Ok</v>
+        <v>Shipping Method</v>
       </c>
       <c r="C78" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D78" t="str">
-        <v>ea42eb47-48c5-40d3-b453-1441b7388b42</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E78" t="str">
+        <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>SKU</v>
+        <v>67368e53-7919-4db1-ba09-501b9d3bcf0e</v>
       </c>
       <c r="B79" t="str">
-        <v>Ok</v>
+        <v>Shipping State</v>
       </c>
       <c r="C79" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D79" t="str">
-        <v>2bee8560-757d-45c6-bdde-6af136422c7c</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E79" t="str">
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Sneakers Member Status</v>
+        <v>a4cf691d-8012-4872-a16e-30de8904af63</v>
       </c>
       <c r="B80" t="str">
-        <v>in progress</v>
+        <v>SKU</v>
       </c>
       <c r="C80" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D80" t="str">
-        <v>3f83defc-ef6c-49bd-bc93-e89fedcaecba</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E80" t="str">
+        <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Social Network</v>
+        <v>0cafb3f1-aef1-4471-aa3c-c87980d4f3c1</v>
       </c>
       <c r="B81" t="str">
-        <v>Ok</v>
+        <v>Sneakers Member Status</v>
       </c>
       <c r="C81" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D81" t="str">
-        <v>3d83f113-0ca8-47c7-b678-6f44df63e31d</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E81" t="str">
+        <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Source Name</v>
+        <v>ddac1410-b7a3-4e13-a8cd-f2b1e67a0f2c</v>
       </c>
       <c r="B82" t="str">
-        <v>Ok</v>
+        <v>Social Network</v>
       </c>
       <c r="C82" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D82" t="str">
-        <v>1eddb8e7-adc4-426b-9e1f-27d35bf98759</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E82" t="str">
+        <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Stock</v>
+        <v>fc986a37-0cdc-4467-86bb-071218b47f77</v>
       </c>
       <c r="B83" t="str">
-        <v>Ok</v>
+        <v>Source Name</v>
       </c>
       <c r="C83" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D83" t="str">
-        <v>4e0c0fc5-ee1c-44ea-a0a4-2f91ec39589e</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E83" t="str">
+        <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Store ID</v>
+        <v>01017389-b486-463c-af4d-3bd7bb22b722</v>
       </c>
       <c r="B84" t="str">
-        <v>Ok</v>
+        <v>Stock</v>
       </c>
       <c r="C84" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D84" t="str">
-        <v>2d931497-fb8f-4575-b14a-b9f499706e77</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E84" t="str">
+        <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Store Mode</v>
+        <v>9c93799f-0c55-4452-a52c-8e8be7301dfd</v>
       </c>
       <c r="B85" t="str">
-        <v>Ok</v>
+        <v>Store ID</v>
       </c>
       <c r="C85" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D85" t="str">
-        <v>6680788b-8596-4ceb-acc4-7993aeb502eb</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E85" t="str">
+        <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Tealium info</v>
+        <v>de8292c1-7cd4-4d12-9e19-30978c9fef63</v>
       </c>
       <c r="B86" t="str">
-        <v>Ok</v>
+        <v>Store Mode</v>
       </c>
       <c r="C86" t="str">
-        <v>Data flowing</v>
+        <v>Ok</v>
       </c>
       <c r="D86" t="str">
-        <v>26bb0bff-268b-43ee-95a0-56d480c65358</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E86" t="str">
+        <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>totalDigitalOrders</v>
+        <v>fe3165c9-9570-46e8-9bd3-0c1e2414627d</v>
       </c>
       <c r="B87" t="str">
-        <v>in progress</v>
+        <v>Tealium info</v>
       </c>
       <c r="C87" t="str">
-        <v>(not set)</v>
+        <v>Ok</v>
       </c>
       <c r="D87" t="str">
-        <v>367ef629-2b3c-4836-9371-e4dc8fb9345f</v>
+        <v>Data flowing</v>
+      </c>
+      <c r="E87" t="str">
+        <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>totalRetailOrders</v>
+        <v>d1007718-7de0-4e5d-a756-5b2fe72bb3e1</v>
       </c>
       <c r="B88" t="str">
+        <v>totalDigitalOrders</v>
+      </c>
+      <c r="C88" t="str">
         <v>in progress</v>
       </c>
-      <c r="C88" t="str">
+      <c r="D88" t="str">
         <v>(not set)</v>
       </c>
-      <c r="D88" t="str">
-        <v>2fef5b92-ac10-46c4-ae93-9341824b1503</v>
+      <c r="E88" t="str">
+        <v/>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Transaction Value</v>
+        <v>07a3af69-dc68-4471-96ab-91e6e1a001d3</v>
       </c>
       <c r="B89" t="str">
+        <v>totalRetailOrders</v>
+      </c>
+      <c r="C89" t="str">
         <v>in progress</v>
       </c>
-      <c r="C89" t="str">
+      <c r="D89" t="str">
         <v>(not set)</v>
       </c>
-      <c r="D89" t="str">
-        <v>e85ad8bf-0141-4b6d-b24c-1fc1cc09ba77</v>
+      <c r="E89" t="str">
+        <v/>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>User Club Status</v>
+        <v>46628bd5-f0eb-4421-b6cc-5095a1733134</v>
       </c>
       <c r="B90" t="str">
+        <v>Transaction Value</v>
+      </c>
+      <c r="C90" t="str">
         <v>in progress</v>
       </c>
-      <c r="C90" t="str">
+      <c r="D90" t="str">
         <v>(not set)</v>
       </c>
-      <c r="D90" t="str">
-        <v>2c778251-d9de-490f-8734-3b605afbf80a</v>
+      <c r="E90" t="str">
+        <v/>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>User Segmentation</v>
+        <v>8afdb0bf-4124-418e-ae20-228ecf77b75c</v>
       </c>
       <c r="B91" t="str">
-        <v>Ok</v>
+        <v>User Club Status</v>
       </c>
       <c r="C91" t="str">
-        <v>Data flowing</v>
+        <v>in progress</v>
       </c>
       <c r="D91" t="str">
-        <v>f038ca4b-e3c1-46bb-9fc9-87022c953d19</v>
+        <v>(not set)</v>
+      </c>
+      <c r="E91" t="str">
+        <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
+        <v>04e45114-010b-42ed-8a8e-f6be5ec17d04</v>
+      </c>
+      <c r="B92" t="str">
+        <v>User Segmentation</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="E92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>1b9351f4-a6d7-4565-998b-ef38b79610fd</v>
+      </c>
+      <c r="B93" t="str">
         <v>Website Versions</v>
       </c>
-      <c r="B92" t="str">
-        <v>Ok</v>
-      </c>
-      <c r="C92" t="str">
-        <v>Data flowing</v>
-      </c>
-      <c r="D92" t="str">
-        <v>874f4cd4-4de4-4fcf-a442-a8509dff3511</v>
+      <c r="C93" t="str">
+        <v>Ok</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Data flowing</v>
+      </c>
+      <c r="E93" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D92"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E93"/>
   </ignoredErrors>
 </worksheet>
 </file>